--- a/TheOrdinaryConflicts.xlsx
+++ b/TheOrdinaryConflicts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/babettesmith/Dropbox/TheOrdinaryScript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/babettesmith/git/TheOrdinaryChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E78081E-3064-CD43-9ABB-FC6DB31717A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503DDAFD-BDD1-C24E-AF3A-59AAA2AB3AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="460" windowWidth="28300" windowHeight="16620" xr2:uid="{DD5C9E90-EBFA-4B45-B4FB-D51C8F8296A2}"/>
+    <workbookView xWindow="17100" yWindow="5320" windowWidth="11700" windowHeight="13360" xr2:uid="{DD5C9E90-EBFA-4B45-B4FB-D51C8F8296A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>Product</t>
   </si>
   <si>
-    <t>Strong Acid</t>
-  </si>
-  <si>
-    <t>Pure vitamin C</t>
-  </si>
-  <si>
     <t>More Molecules</t>
   </si>
   <si>
@@ -53,31 +47,202 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Toning solution</t>
-  </si>
-  <si>
-    <t>Niacidamide</t>
-  </si>
-  <si>
     <t>EUK 134 0.1%</t>
   </si>
   <si>
-    <t>Buffet + Copper Peptides 1%.</t>
-  </si>
-  <si>
-    <t>Antioxidants</t>
-  </si>
-  <si>
     <t>Peptides</t>
   </si>
   <si>
-    <t>Vitamin C (LAA/ELAA) and Strong Antioxidants,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pure Vitamin C (EAA/LAA), Niacidamide, Buffet + Copper Peptides 1%,  </t>
-  </si>
-  <si>
-    <t>Pure Vitamin C</t>
+    <t>Antioxidants </t>
+  </si>
+  <si>
+    <t>Resveratrol 3% + Ferulic Acid 3%</t>
+  </si>
+  <si>
+    <t>Squalane Cleanser</t>
+  </si>
+  <si>
+    <t>Cleansers</t>
+  </si>
+  <si>
+    <t>Direct Acid</t>
+  </si>
+  <si>
+    <t>AHA 30% + BHA 2% Peeling Solution</t>
+  </si>
+  <si>
+    <t>Direct Acid, Peptides, EUK 134 0.1%</t>
+  </si>
+  <si>
+    <t>Azelaic Acid Suspension 10%</t>
+  </si>
+  <si>
+    <t>Glycolic Acid 7% Toning Solution</t>
+  </si>
+  <si>
+    <t>Lactic Acid 5% + HA</t>
+  </si>
+  <si>
+    <t>Lactic Acid 10% + HA</t>
+  </si>
+  <si>
+    <t>Mandelic Acid 10% + HA</t>
+  </si>
+  <si>
+    <t>Salicylic Acid 2% Masque</t>
+  </si>
+  <si>
+    <t>Salicylic Acid 2% Solution</t>
+  </si>
+  <si>
+    <t>Pycnogelol 5%</t>
+  </si>
+  <si>
+    <t>Hair Care</t>
+  </si>
+  <si>
+    <t>Multi-Peptide Serum for Hair Density</t>
+  </si>
+  <si>
+    <t>Hydrators and Oils</t>
+  </si>
+  <si>
+    <t>"B" Oil</t>
+  </si>
+  <si>
+    <t>100% Organic Cold-Pressed Borage Seed Oil</t>
+  </si>
+  <si>
+    <t>100% Organic Cold-Pressed Moroccan Argan Oil</t>
+  </si>
+  <si>
+    <t>100% Organic Cold-Pressed Rose Hip Seed Oil</t>
+  </si>
+  <si>
+    <t>100% Organic Virgin Chia Seed Oil</t>
+  </si>
+  <si>
+    <t>100% Organic Virgin Marula Oil</t>
+  </si>
+  <si>
+    <t>100% Organic Virgin Sea-Buckthorn Fruit Oil</t>
+  </si>
+  <si>
+    <t>100% Plant-Derived Squalane</t>
+  </si>
+  <si>
+    <t>Amino Acids + B5</t>
+  </si>
+  <si>
+    <t>Hyaluronic Acid 2% + B5</t>
+  </si>
+  <si>
+    <t>Marine Hyaluronics</t>
+  </si>
+  <si>
+    <t>Natural Moisturizing Factors + HA</t>
+  </si>
+  <si>
+    <t>100% Plant-Derived Hemi-Squalane</t>
+  </si>
+  <si>
+    <t>Alpha Arbutin 2% + HA</t>
+  </si>
+  <si>
+    <t>Caffeine Solution 5% + EGCG</t>
+  </si>
+  <si>
+    <t>Niacinamide 10% + Zinc 1%</t>
+  </si>
+  <si>
+    <t>Pure Vitamin C (ELAA/LAA)</t>
+  </si>
+  <si>
+    <t>"Buffet"</t>
+  </si>
+  <si>
+    <t>Direct Acid, Pure Vitamin C (LAA/ELAA)</t>
+  </si>
+  <si>
+    <t>"Buffet" + Copper Peptides 1%</t>
+  </si>
+  <si>
+    <t>Direct Acid,  Pure Vitamin C (EAA/LAA), "Buffet" + Copper Peptides 1%</t>
+  </si>
+  <si>
+    <t>Direct Acid, Pure Vitamin C (LAA/ELAA), Antioxidants</t>
+  </si>
+  <si>
+    <t>Argireline Solution 10%</t>
+  </si>
+  <si>
+    <t>Matrixyl 10% + HA</t>
+  </si>
+  <si>
+    <t>Retinoids</t>
+  </si>
+  <si>
+    <t>Granactive Retinoid 2% in Squalane</t>
+  </si>
+  <si>
+    <t>Granactive Retinoid 5% in Squalane</t>
+  </si>
+  <si>
+    <t>Granactive Retinoid Emulsion</t>
+  </si>
+  <si>
+    <t>Retinol 0.2% in Squalane</t>
+  </si>
+  <si>
+    <t>Retinol 0.5% in Squalane</t>
+  </si>
+  <si>
+    <t>Retinol 1% in Squalane</t>
+  </si>
+  <si>
+    <t>Suncare</t>
+  </si>
+  <si>
+    <t>Mineral UV Filters SPF 15 with Antioxidants</t>
+  </si>
+  <si>
+    <t>Mineral UV Filters SPF 30 with Antioxidants</t>
+  </si>
+  <si>
+    <t>Vitamin C</t>
+  </si>
+  <si>
+    <t>100% L-Ascorbic Acid Powder</t>
+  </si>
+  <si>
+    <t>Direct Acid, Niacinamide 10% + Zinc 1%, EUK 134 0.1%, Peptides</t>
+  </si>
+  <si>
+    <t>Ascorbic Acid 8% + Alpha Arbutin 2%</t>
+  </si>
+  <si>
+    <t>Niacinamide 10% + Zinc 1%, EUK 134 0.1%</t>
+  </si>
+  <si>
+    <t>Ascorbyl Glucoside Solution 12%</t>
+  </si>
+  <si>
+    <t>Ascorbyl Tetraisopalmitate Solution 20% in Vitamin F</t>
+  </si>
+  <si>
+    <t>Ethylated Ascorbic Acid 15% Solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Niacinamide 10% + Zinc 1%, EUK 134 0.1%, Peptides</t>
+  </si>
+  <si>
+    <t>Magnesium Ascorbyl Phosphate 10%</t>
+  </si>
+  <si>
+    <t>Vitamin C Suspension 23% + HA Spheres 2%</t>
+  </si>
+  <si>
+    <t>Vitamin C Suspension 30% in Silicone</t>
   </si>
 </sst>
 </file>
@@ -102,16 +267,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF333333"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,9 +299,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -453,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FA8C6-69BA-654B-8643-E18B34C83A4E}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -478,13 +644,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -492,37 +658,458 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/TheOrdinaryConflicts.xlsx
+++ b/TheOrdinaryConflicts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/babettesmith/git/TheOrdinaryChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503DDAFD-BDD1-C24E-AF3A-59AAA2AB3AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850E73E3-8051-3A4A-984A-683E4EF4E3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17100" yWindow="5320" windowWidth="11700" windowHeight="13360" xr2:uid="{DD5C9E90-EBFA-4B45-B4FB-D51C8F8296A2}"/>
   </bookViews>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FA8C6-69BA-654B-8643-E18B34C83A4E}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -1046,10 +1046,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
         <v>58</v>
@@ -1057,7 +1054,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
@@ -1065,7 +1062,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
@@ -1073,10 +1073,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
@@ -1084,7 +1081,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
         <v>62</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C50" t="s">
         <v>58</v>

--- a/TheOrdinaryConflicts.xlsx
+++ b/TheOrdinaryConflicts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/babettesmith/git/TheOrdinaryChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850E73E3-8051-3A4A-984A-683E4EF4E3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F13D43-43B1-D14E-9F78-3142E393C0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="5320" windowWidth="11700" windowHeight="13360" xr2:uid="{DD5C9E90-EBFA-4B45-B4FB-D51C8F8296A2}"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="16460" windowHeight="14680" xr2:uid="{DD5C9E90-EBFA-4B45-B4FB-D51C8F8296A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FA8C6-69BA-654B-8643-E18B34C83A4E}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
